--- a/docs/Manual/source/CZ/tab/parameters.xlsx
+++ b/docs/Manual/source/CZ/tab/parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TGZ-D-48-13_26" sheetId="1" state="visible" r:id="rId2"/>
@@ -165,7 +165,7 @@
     <t xml:space="preserve">2 x Erni šroubovací svorky M5 PRESSFIT</t>
   </si>
   <si>
-    <t xml:space="preserve">1 x 5pin MOLEX micro-lock, 505570-0401</t>
+    <t xml:space="preserve">1 x 5pin MOLEX micro-lock, 505570-0501</t>
   </si>
   <si>
     <t xml:space="preserve">3 x Erni šroubovací svorky M5 PRESSFIT </t>
@@ -300,11 +300,11 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.92"/>
@@ -512,11 +512,11 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
@@ -728,7 +728,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>

--- a/docs/Manual/source/CZ/tab/parameters.xlsx
+++ b/docs/Manual/source/CZ/tab/parameters.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TGZ-D-48-13_26" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="TGZ-S-48-50_100" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="TGZ-D-48-50_100" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="TGZ-D-48-50_100" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="TGZ-S-48-50_100" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="TGZ-S-48-100_250" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="67">
   <si>
     <t xml:space="preserve">NAPÁJENÍ</t>
   </si>
@@ -150,6 +151,33 @@
     <t xml:space="preserve">1x 12pin WEIDMÜLLER  B2CF 3.50/12/180</t>
   </si>
   <si>
+    <t xml:space="preserve">4,8 kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x 50 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x 100 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 x 1pin WAGO push-in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 x 1pin WAGO push-in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brzdový konektor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 × 6pin WEIDMÜLLER  BLF 5.00HC/06/180F</t>
+  </si>
+  <si>
     <t xml:space="preserve">2,4 kW</t>
   </si>
   <si>
@@ -171,34 +199,31 @@
     <t xml:space="preserve">3 x Erni šroubovací svorky M5 PRESSFIT </t>
   </si>
   <si>
-    <t xml:space="preserve">Brzdový konektor</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 x 4pin MOLEX micro-lock, 505570-0501</t>
   </si>
   <si>
-    <t xml:space="preserve">4,8 kW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 x 50 A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 x 100 A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 x 1pin WAGO push-in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 x 1pin WAGO push-in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 × 6pin WEIDMÜLLER  BLF 5.00HC/06/180F</t>
+    <t xml:space="preserve">250 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 x Pressfit M5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 5pin MOLEX Micro-Fit 3.0, 436450500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 x Pressfit M8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 4pin MOLEX Micro-Fit 3.0, 430250400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Externí temistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 2pin MOLEX Micro-Fit 3.0, 430250200</t>
   </si>
 </sst>
 </file>
@@ -276,9 +301,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -304,7 +333,7 @@
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.92"/>
@@ -510,15 +539,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
   </cols>
   <sheetData>
@@ -564,7 +593,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>44</v>
@@ -572,103 +601,103 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>1</v>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B13" s="0" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B16" s="0" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B20" s="0" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>47</v>
@@ -676,33 +705,41 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B28" s="0" t="s">
         <v>41</v>
       </c>
     </row>
@@ -722,15 +759,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
   </cols>
   <sheetData>
@@ -776,7 +813,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>53</v>
@@ -784,103 +821,103 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>55</v>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="0" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="0" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="0" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>56</v>
@@ -888,42 +925,254 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="B26" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>40</v>
+      </c>
       <c r="B27" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Manual/source/CZ/tab/parameters.xlsx
+++ b/docs/Manual/source/CZ/tab/parameters.xlsx
@@ -5,13 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TGZ-D-48-13_26" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="TGZ-D-48-50_100" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="TGZ-S-48-50_100" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="TGZ-S-48-100_250" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="TGZ-S-48-100_300" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="TGZ-S-48-100_425" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="TGZ-S-230-5_15" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="TGZ-D-320-5_10" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="TGZ-D-320-5_15" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="88">
   <si>
     <t xml:space="preserve">NAPÁJENÍ</t>
   </si>
@@ -224,6 +229,69 @@
   </si>
   <si>
     <t xml:space="preserve">1 x 2pin MOLEX Micro-Fit 3.0, 430250200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">425 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230 VAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,6 kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 10pin WEIDMÜLLER  BLZP 5.08HC/10/180  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 5pin WEIDMÜLLER  BCZ 3.81/05/180  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 6pin WEIDMÜLLER  SLS 5.08/06/180FI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 8pin WEIDMÜLLER  B2CF 3.50/08/180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 12pin WEIDMÜLLER  B2CF 3.50/12/180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMI FILTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doporučený filtr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLMO62P72-04 nebo NLA062P72-04  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">140-320 VDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,6 kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x 10 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 3pin PHOENIX  PC 5/ 3-STCL1-7,62  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x 6pin WEIDMÜLLER  SLS 5.08/06/180FI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x 8pin WEIDMÜLLER  B2CF 3.50/08/180</t>
   </si>
 </sst>
 </file>
@@ -301,13 +369,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -333,7 +405,7 @@
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.92"/>
@@ -545,7 +617,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
@@ -765,7 +837,7 @@
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
@@ -973,11 +1045,11 @@
   </sheetPr>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
@@ -1173,6 +1245,1087 @@
       </c>
       <c r="B28" s="0" t="s">
         <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Manual/source/CZ/tab/parameters.xlsx
+++ b/docs/Manual/source/CZ/tab/parameters.xlsx
@@ -5,18 +5,22 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="TGZ-D-48-13_26" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="TGZ-D-48-50_100" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="TGZ-S-48-50_100" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="TGZ-S-48-100_250" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="TGZ-S-48-100_300" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="TGZ-S-48-100_425" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="TGZ-S-230-5_15" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="TGZ-D-320-5_10" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="TGZ-D-320-5_15" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="TGZ-D-48-13_26" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="TGZ-D-48-50_100" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="TGZ-S-48-50_100" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="TGZ-S-48-100_250" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="TGZ-S-48-100_300" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="TGZ-S-48-100_425" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="TGZ-S-230-5_15" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="TGZ-D-320-5_10" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="TGZ-D-320-5_15" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="TGZ-S-400-3_9" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="TGZ-S-400-7_15" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="TGZ-S-400-10_20" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="TGZ-S-400-14_30" sheetId="13" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="107">
   <si>
     <t xml:space="preserve">NAPÁJENÍ</t>
   </si>
@@ -292,6 +296,63 @@
   </si>
   <si>
     <t xml:space="preserve">2 x 8pin WEIDMÜLLER  B2CF 3.50/08/180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 VAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,7 kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pracovní spínací frekvence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 kHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 12pin WEIDMÜLLER BLZ 7.62HP/12/180F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 6pin WEIDMÜLLER  BLF 7.62HP/06/180F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCZXX3P49-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,9 kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,6 kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,4 kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110 W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 kHz</t>
   </si>
 </sst>
 </file>
@@ -369,17 +430,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -394,8 +467,114 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -407,191 +586,191 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="52.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -606,8 +785,992 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.27"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="B28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.27"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="B28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.27"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="B28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.27"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="B28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -619,199 +1782,199 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -827,7 +1990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -839,191 +2002,191 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1039,7 +2202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1051,199 +2214,199 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1259,7 +2422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1271,199 +2434,199 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1479,7 +2642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1491,199 +2654,199 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1699,208 +2862,208 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1916,7 +3079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1928,191 +3091,191 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2128,7 +3291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2140,191 +3303,191 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>77</v>
       </c>
     </row>

--- a/docs/Manual/source/CZ/tab/parameters.xlsx
+++ b/docs/Manual/source/CZ/tab/parameters.xlsx
@@ -5,22 +5,23 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
-    <sheet name="TGZ-D-48-13_26" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="TGZ-D-48-50_100" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="TGZ-S-48-50_100" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="TGZ-S-48-100_250" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="TGZ-S-48-100_300" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="TGZ-S-48-100_425" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="TGZ-S-230-5_15" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="TGZ-D-320-5_10" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="TGZ-D-320-5_15" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="TGZ-S-400-3_9" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="TGZ-S-400-7_15" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="TGZ-S-400-10_20" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="TGZ-S-400-14_30" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="TGZ-D-48-13_26" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="TGZ-D-48-50_100" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="TGZ-S-48-50_100" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="TGZ-S-48-100_250" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="TGZ-S-48-100_300" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="TGZ-S-48-100_425" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="TGZ-S-230-5_15" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="TGZ-D-320-5_10" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="TGZ-D-320-5_15" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="TGZ-S-400-3_9" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="TGZ-S-400-7_15" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="TGZ-S-400-10_20" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="TGZ-S-400-14_30" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="TGZ-D-560-30_50" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="115">
   <si>
     <t xml:space="preserve">NAPÁJENÍ</t>
   </si>
@@ -175,10 +176,10 @@
     <t xml:space="preserve">50 W</t>
   </si>
   <si>
-    <t xml:space="preserve">3 x 1pin WAGO push-in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 x 1pin WAGO push-in</t>
+    <t xml:space="preserve">1 x 3pin WAGO push-in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 4pin WAGO push-in</t>
   </si>
   <si>
     <t xml:space="preserve">Brzdový konektor</t>
@@ -199,6 +200,9 @@
     <t xml:space="preserve">30 W</t>
   </si>
   <si>
+    <t xml:space="preserve">LED signalizace</t>
+  </si>
+  <si>
     <t xml:space="preserve">2 x Erni šroubovací svorky M5 PRESSFIT</t>
   </si>
   <si>
@@ -353,6 +357,27 @@
   </si>
   <si>
     <t xml:space="preserve">10 kHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24-560 VDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">900 W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">šroubovací svorky M8x12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 5pin WEIDMÜLLER  BCZ 3.81/05/180F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtr obsahující napájecí modul TGS-560</t>
   </si>
 </sst>
 </file>
@@ -447,12 +472,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -467,114 +492,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -584,7 +503,7 @@
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="52.92"/>
@@ -786,238 +705,238 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>88</v>
+      <c r="B3" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>89</v>
+      <c r="B4" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>90</v>
+      <c r="B5" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>91</v>
+      <c r="B6" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="B8" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="0" t="s">
+      <c r="A20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>94</v>
+      <c r="B23" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>74</v>
+      <c r="B24" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>95</v>
+      <c r="B25" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>76</v>
+      <c r="B26" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>77</v>
+      <c r="B27" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="0"/>
+      <c r="A29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>96</v>
+      <c r="A30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1032,238 +951,238 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>88</v>
+      <c r="B3" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1278,238 +1197,238 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>88</v>
+      <c r="B3" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>99</v>
+      <c r="B4" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>100</v>
+      <c r="B5" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>101</v>
+      <c r="B6" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>60</v>
+      <c r="B7" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="B8" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="0" t="s">
+      <c r="A20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>94</v>
+      <c r="B23" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>74</v>
+      <c r="B24" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>95</v>
+      <c r="B25" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>76</v>
+      <c r="B26" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>77</v>
+      <c r="B27" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="0"/>
+      <c r="A29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>96</v>
+      <c r="A30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1524,23 +1443,269 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +1726,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,7 +1734,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1577,31 +1742,31 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>104</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,12 +1865,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1713,7 +1878,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1721,7 +1886,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1729,7 +1894,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1737,7 +1902,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1746,17 +1911,41 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>96</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
+      <c r="B31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
+      <c r="B33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
+      <c r="B34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0"/>
+      <c r="B35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0"/>
+      <c r="B36" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1770,17 +1959,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
@@ -1990,17 +2179,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
@@ -2128,7 +2317,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>30</v>
@@ -2147,7 +2336,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2155,7 +2344,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2163,7 +2352,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2171,7 +2360,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2202,17 +2391,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
@@ -2263,7 +2452,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2271,7 +2460,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2340,7 +2529,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>30</v>
@@ -2359,7 +2548,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2367,7 +2556,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2375,7 +2564,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2383,7 +2572,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2404,10 +2593,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2422,17 +2611,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
@@ -2483,7 +2672,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2491,7 +2680,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2560,7 +2749,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>30</v>
@@ -2579,7 +2768,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2587,7 +2776,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2595,7 +2784,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2603,7 +2792,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2624,10 +2813,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2642,17 +2831,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
@@ -2703,7 +2892,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2711,7 +2900,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2780,7 +2969,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>30</v>
@@ -2799,7 +2988,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2807,7 +2996,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2815,7 +3004,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2823,7 +3012,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2844,10 +3033,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2862,17 +3051,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
@@ -2899,7 +3088,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2907,7 +3096,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2915,7 +3104,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2931,7 +3120,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3000,7 +3189,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>30</v>
@@ -3019,7 +3208,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3027,7 +3216,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3035,7 +3224,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3043,7 +3232,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3051,20 +3240,20 @@
         <v>40</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3079,7 +3268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3089,9 +3278,9 @@
       <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
   </cols>
   <sheetData>
@@ -3116,7 +3305,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3124,7 +3313,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,7 +3321,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3140,7 +3329,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3148,7 +3337,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3244,7 +3433,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3252,7 +3441,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3260,7 +3449,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,7 +3457,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3276,7 +3465,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3291,7 +3480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3301,9 +3490,9 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
   </cols>
   <sheetData>
@@ -3328,7 +3517,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,7 +3525,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3344,7 +3533,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,7 +3541,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3456,7 +3645,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3464,7 +3653,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3472,7 +3661,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3480,7 +3669,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3488,7 +3677,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Manual/source/CZ/tab/parameters.xlsx
+++ b/docs/Manual/source/CZ/tab/parameters.xlsx
@@ -5,23 +5,24 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
-    <sheet name="TGZ-D-48-13_26" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="TGZ-D-48-50_100" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="TGZ-S-48-50_100" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="TGZ-S-48-100_250" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="TGZ-S-48-100_300" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="TGZ-S-48-100_425" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="TGZ-S-230-5_15" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="TGZ-D-320-5_10" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="TGZ-D-320-5_15" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="TGZ-S-400-3_9" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="TGZ-S-400-7_15" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="TGZ-S-400-10_20" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="TGZ-S-400-14_30" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="TGZ-D-560-30_50" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="TGZ-D-48-13_26" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="TGZ-D-48-50_100" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="TGZ-S-48-50_100" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="TGZ-S-48-100_250" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="TGZ-S-48-100_300" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="TGZ-S-48-100_425" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="TGZ-S-230-5_15" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="TGZ-D-320-5_10" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="TGZ-D-320-5_15" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="TGZ-S-400-3_9" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="TGZ-S-400-7_15" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="TGZ-S-400-10_20" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="TGZ-S-400-14_30" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="TGZ-D-560-30_50" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="TGS-320-10_15" sheetId="15" state="visible" r:id="rId17"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="150">
   <si>
     <t xml:space="preserve">NAPÁJENÍ</t>
   </si>
@@ -371,13 +372,118 @@
     <t xml:space="preserve">900 W</t>
   </si>
   <si>
+    <t xml:space="preserve">VSTUPY/VÝSTUPY</t>
+  </si>
+  <si>
     <t xml:space="preserve">šroubovací svorky M8x12</t>
   </si>
   <si>
     <t xml:space="preserve">1 x 5pin WEIDMÜLLER  BCZ 3.81/05/180F</t>
   </si>
   <si>
+    <t xml:space="preserve">2 x 4pin  WEIDMÜLLER LSF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x 8pin WEIDMÜLLER B2CF 3.50/08/180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 12pin WEIDMÜLLER B2CF 3.50/12/180</t>
+  </si>
+  <si>
     <t xml:space="preserve">Filtr obsahující napájecí modul TGS-560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vstupní napětí (VAC - 50/60 Hz) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 230 VAC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximální vstupní proud (AC) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Výstupní napětí (DC) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">320 VDC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximální trvalý výstupní proud (DC) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximální krátkodobý výstupní proud (DC, 1s) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximální výstupní výkon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 200 W </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximální brzdný výkon (interní rezistor) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 W </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximální brzdný výkon (externí rezistor) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 200 W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ztráty při maximálním výstupním výkonu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 W </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jištění </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 A (char. Z, dvoupól)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VÝSTUPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bezpotenciálový kontakt RDY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max. 28 VDC / 700 mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bezpotenciálový kontakt ERR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1x zelená (Ready)  1x červená (Error)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KONEKTORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Síťový napájecí konektor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC bus konektor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 8pin PHOENIX PC 5/ 8-STCL1-7,62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konektor pro digitální výstupy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 4pin WEIDMÜLLER BCZ 3.81/04/180 SN BK BX</t>
   </si>
 </sst>
 </file>
@@ -472,12 +578,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -492,15 +598,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A1:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -705,14 +917,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A1:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -935,7 +1147,7 @@
       <c r="A30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -951,14 +1163,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A1:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1181,7 +1393,7 @@
       <c r="A30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1197,14 +1409,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A1:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1427,7 +1639,7 @@
       <c r="A30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1443,14 +1655,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A1:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1673,7 +1885,7 @@
       <c r="A30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1689,14 +1901,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C38" activeCellId="1" sqref="A1:B30 C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1706,6 +1918,240 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="A1:B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1714,214 +2160,206 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>108</v>
-      </c>
+      <c r="A3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>109</v>
-      </c>
+      <c r="A4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>105</v>
-      </c>
+      <c r="A5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>110</v>
-      </c>
+      <c r="A6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>44</v>
-      </c>
+      <c r="A7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>111</v>
-      </c>
+      <c r="A8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
+      <c r="A9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>1</v>
-      </c>
+      <c r="A10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>18</v>
-      </c>
+      <c r="A11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>20</v>
-      </c>
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
+      <c r="A14" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>25</v>
-      </c>
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>28</v>
-      </c>
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
+      <c r="A21" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>113</v>
-      </c>
+      <c r="A24" s="0"/>
+      <c r="B24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>48</v>
-      </c>
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="A26" s="0"/>
+      <c r="B26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>78</v>
-      </c>
+      <c r="A27" s="0"/>
+      <c r="B27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0"/>
       <c r="B28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>79</v>
-      </c>
+      <c r="A29" s="0"/>
       <c r="B29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>114</v>
-      </c>
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
@@ -1938,14 +2376,6 @@
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0"/>
-      <c r="B35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0"/>
-      <c r="B36" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1959,14 +2389,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="A1:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2179,14 +2609,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A1:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2391,14 +2821,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A1:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2611,14 +3041,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A1:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2831,14 +3261,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A1:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3051,14 +3481,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A1:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3268,14 +3698,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="A1:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3480,14 +3910,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="A1:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/docs/Manual/source/CZ/tab/parameters.xlsx
+++ b/docs/Manual/source/CZ/tab/parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="TGZ-D-48-13_26" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,6 +23,8 @@
     <sheet name="TGZ-S-400-14_30" sheetId="13" state="visible" r:id="rId15"/>
     <sheet name="TGZ-D-560-30_50" sheetId="14" state="visible" r:id="rId16"/>
     <sheet name="TGS-320-10_15" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="TGS-560-25_50" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="TGS-560-50_100" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="164">
   <si>
     <t xml:space="preserve">NAPÁJENÍ</t>
   </si>
@@ -480,10 +482,52 @@
     <t xml:space="preserve">1 x 8pin PHOENIX PC 5/ 8-STCL1-7,62</t>
   </si>
   <si>
-    <t xml:space="preserve">Konektor pro digitální výstupy</t>
+    <t xml:space="preserve">Konektor pro kontrolní výstupy</t>
   </si>
   <si>
     <t xml:space="preserve">1 x 4pin WEIDMÜLLER BCZ 3.81/04/180 SN BK BX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 x 400 VAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">560 VDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 5pin WEIDMÜLLER BCZ 3.81/05/180F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150 W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 7pin WAGO push-in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI konektor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Připojení externího termistoru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1x 2pin WEIDMÜLLER LSF (push-in)</t>
   </si>
 </sst>
 </file>
@@ -712,7 +756,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A1:B30"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -924,7 +968,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A1:B30"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1170,7 +1214,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A1:B30"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1416,7 +1460,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A1:B30"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1662,7 +1706,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A1:B30"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1908,7 +1952,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C38" activeCellId="1" sqref="A1:B30 C38"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2140,8 +2184,8 @@
   </sheetPr>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="A1:B30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2376,6 +2420,532 @@
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0"/>
+      <c r="B26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0"/>
+      <c r="B27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="B28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
+      <c r="B29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
+      <c r="B31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
+      <c r="B33" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0"/>
+      <c r="B27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="B28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
+      <c r="B29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
+      <c r="B31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
+      <c r="B33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
+      <c r="B34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0"/>
+      <c r="B35" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2396,7 +2966,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="A1:B30"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2616,7 +3186,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A1:B30"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2828,7 +3398,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A1:B30"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3048,7 +3618,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A1:B30"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3268,7 +3838,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A1:B30"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3488,7 +4058,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A1:B30"/>
+      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3705,7 +4275,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="A1:B30"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3917,7 +4487,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="A1:B30"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/docs/Manual/source/CZ/tab/parameters.xlsx
+++ b/docs/Manual/source/CZ/tab/parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="TGZ-D-48-13_26" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,6 +25,7 @@
     <sheet name="TGS-320-10_15" sheetId="15" state="visible" r:id="rId17"/>
     <sheet name="TGS-560-25_50" sheetId="16" state="visible" r:id="rId18"/>
     <sheet name="TGS-560-50_100" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="TGMmini" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="186">
   <si>
     <t xml:space="preserve">NAPÁJENÍ</t>
   </si>
@@ -528,6 +529,72 @@
   </si>
   <si>
     <t xml:space="preserve">1x 2pin WEIDMÜLLER LSF (push-in)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napájecí napětí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 V DC (± 20 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proudový odběr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min. 1 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napájení DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethernet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/100 Mbit RJ45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EtherCAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Mbps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 x USB 2.0, microUSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">microSD slot s detekcí vložené karty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stavová signalizační LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Červená/zelená STS dioda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napájení</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 4pin WEIDMÜLLER BLF 2.50/04/180 SN BK BX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 4pin WEIDMÜLLER B2CF 3.50/04/180 SN OR BX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI/DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x 10pin WEIDMÜLLER B2CF 3.50/10/180 SN OR BX</t>
   </si>
 </sst>
 </file>
@@ -605,7 +672,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -623,10 +690,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -756,7 +819,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2182,7 +2245,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
@@ -2192,234 +2255,178 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-    </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-    </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-      <c r="B24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
-      <c r="B32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
-      <c r="B33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0"/>
-      <c r="B34" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2437,9 +2444,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -2447,234 +2454,186 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5"/>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-    </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-    </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
-      <c r="B32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
-      <c r="B33" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2692,10 +2651,233 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2714,122 +2896,122 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>119</v>
+      <c r="A2" s="0" t="s">
+        <v>164</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="5"/>
+        <v>165</v>
+      </c>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>121</v>
+      <c r="A3" s="0" t="s">
+        <v>166</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
+        <v>167</v>
+      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>123</v>
+      <c r="A4" s="0" t="s">
+        <v>168</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>165</v>
+      </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="5"/>
+      <c r="A5" s="0"/>
+      <c r="B5" s="0"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>127</v>
+      <c r="A6" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>129</v>
+      <c r="A7" s="0" t="s">
+        <v>169</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>170</v>
+      </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>131</v>
+      <c r="A8" s="0" t="s">
+        <v>171</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>172</v>
+      </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>133</v>
+      <c r="A9" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>135</v>
+      <c r="A10" s="0" t="s">
+        <v>173</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>174</v>
+      </c>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>137</v>
+      <c r="A11" s="0" t="s">
+        <v>175</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="5"/>
+        <v>176</v>
+      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
+      <c r="A12" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>1</v>
-      </c>
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>141</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>141</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
@@ -2837,7 +3019,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>1</v>
@@ -2845,107 +3027,43 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
+      <c r="A19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="A23" s="0"/>
+      <c r="B23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
-      <c r="B32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
-      <c r="B33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0"/>
-      <c r="B34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0"/>
-      <c r="B35" s="0"/>
+      <c r="A24" s="0"/>
+      <c r="B24" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2966,7 +3084,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/docs/Manual/source/CZ/tab/parameters.xlsx
+++ b/docs/Manual/source/CZ/tab/parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="TGZ-D-48-13_26" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,6 +26,7 @@
     <sheet name="TGS-560-25_50" sheetId="16" state="visible" r:id="rId18"/>
     <sheet name="TGS-560-50_100" sheetId="17" state="visible" r:id="rId19"/>
     <sheet name="TGMmini" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="TGMcontroller" sheetId="19" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="188">
   <si>
     <t xml:space="preserve">NAPÁJENÍ</t>
   </si>
@@ -595,6 +596,12 @@
   </si>
   <si>
     <t xml:space="preserve">2 x 10pin WEIDMÜLLER B2CF 3.50/10/180 SN OR BX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Červená/zelená dioda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 22pin WEIDMÜLLER  B2CF 3.50/22/180</t>
   </si>
 </sst>
 </file>
@@ -2874,10 +2881,193 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2888,182 +3078,160 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
-      <c r="B5" s="0"/>
       <c r="C5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>170</v>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>172</v>
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>174</v>
+      <c r="A10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>176</v>
-      </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>178</v>
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
+      <c r="A13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>1</v>
-      </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>180</v>
+      <c r="A15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
+      <c r="A16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>1</v>
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>182</v>
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>183</v>
+      <c r="A19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-      <c r="B23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-      <c r="B24" s="0"/>
+      <c r="A20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Manual/source/CZ/tab/parameters.xlsx
+++ b/docs/Manual/source/CZ/tab/parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="TGZ-D-48-13_26" sheetId="1" state="visible" r:id="rId3"/>
@@ -27,6 +27,7 @@
     <sheet name="TGS-560-50_100" sheetId="17" state="visible" r:id="rId19"/>
     <sheet name="TGMmini" sheetId="18" state="visible" r:id="rId20"/>
     <sheet name="TGMcontroller" sheetId="19" state="visible" r:id="rId21"/>
+    <sheet name="TGZpMotion" sheetId="20" state="visible" r:id="rId22"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="188">
   <si>
     <t xml:space="preserve">NAPÁJENÍ</t>
   </si>
@@ -3066,7 +3067,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -3074,7 +3075,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3464,6 +3465,167 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">

--- a/docs/Manual/source/CZ/tab/parameters.xlsx
+++ b/docs/Manual/source/CZ/tab/parameters.xlsx
@@ -5,29 +5,30 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="19"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TGZ-D-48-13_26" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="TGZ-D-48-50_100" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="TGZ-S-48-50_100" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="TGZ-S-48-100_250" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="TGZ-S-48-100_300" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="TGZ-S-48-100_425" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="TGZ-S-230-5_15" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="TGZ-D-320-5_10" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="TGZ-D-320-5_15" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="TGZ-S-400-3_9" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="TGZ-S-400-7_15" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="TGZ-S-400-10_20" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="TGZ-S-400-14_30" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="TGZ-D-560-30_50" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="TGS-320-10_15" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="TGS-560-25_50" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="TGS-560-50_100" sheetId="17" state="visible" r:id="rId19"/>
-    <sheet name="TGMmini" sheetId="18" state="visible" r:id="rId20"/>
-    <sheet name="TGMcontroller" sheetId="19" state="visible" r:id="rId21"/>
-    <sheet name="TGZpMotion" sheetId="20" state="visible" r:id="rId22"/>
+    <sheet name="TGZ-S-48-50_100RI" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="TGZ-S-48-100_250" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="TGZ-S-48-100_300" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="TGZ-S-48-100_425" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="TGZ-S-230-5_15" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="TGZ-D-320-5_10" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="TGZ-D-320-5_15" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="TGZ-S-400-3_9" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="TGZ-S-400-7_15" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="TGZ-S-400-10_20" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="TGZ-S-400-14_30" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="TGZ-D-560-30_50" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="TGS-320-10_15" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="TGS-560-25_50" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="TGS-560-50_100" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="TGMmini" sheetId="19" state="visible" r:id="rId21"/>
+    <sheet name="TGMcontroller" sheetId="20" state="visible" r:id="rId22"/>
+    <sheet name="TGZpMotion" sheetId="21" state="visible" r:id="rId23"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="208">
   <si>
     <t xml:space="preserve">NAPÁJENÍ</t>
   </si>
@@ -219,6 +220,66 @@
   </si>
   <si>
     <t xml:space="preserve">1 x 4pin MOLEX micro-lock, 505570-0501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 8pin MOLEX 5031490800 CLIK-MATE 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100/1000 Mb/s, 2 x 8pin MOLEX 5031490800 CLIK-MATE 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100/1000 Mb/s, 1 x 8pin MOLEX 5031490800 CLIK-MATE 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I/O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 DI, 6 DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 18pin MOLEX 5031491800 CLIK-MATE 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 DI (TTL), 1 AI, 2 PT1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 12pin MOLEX 5031491200 CLIK-MATE 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEEDBACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB1, FB2, FB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 x 10pin MOLEX 5031481090 CLIK-MATE 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 12pin MOLEX 5031481290 CLIK-MATE 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC BUS (+DC, -DC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x Pressfit M5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Řízení, STO, BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 5pin MOLEX micro-lock, 5055700501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 x Pressfit M5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Externí teplota, Brzda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 4pin MOLEX Micro-lock 50557005011</t>
   </si>
   <si>
     <t xml:space="preserve">250 A</t>
@@ -680,12 +741,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1036,234 +1105,200 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>89</v>
+      <c r="B3" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>90</v>
+      <c r="B4" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>91</v>
+      <c r="B5" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-    </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-    </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-    </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>96</v>
+      <c r="B25" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>77</v>
+      <c r="B26" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>97</v>
+      <c r="B27" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1295,221 +1330,221 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>89</v>
+      <c r="B3" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>97</v>
+      <c r="A30" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1531,7 +1566,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1541,221 +1576,221 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>89</v>
+      <c r="B3" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>97</v>
+      <c r="B30" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1777,7 +1812,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1787,221 +1822,221 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>89</v>
+      <c r="B3" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>103</v>
+      <c r="B4" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>104</v>
+      <c r="B5" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>105</v>
+      <c r="B6" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>106</v>
+      <c r="B7" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>107</v>
+      <c r="A8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>96</v>
+      <c r="B25" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>77</v>
+      <c r="B26" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>78</v>
+      <c r="B27" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="4"/>
+      <c r="A29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>97</v>
+      <c r="A30" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2016,6 +2051,252 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.27"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2053,7 +2334,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2061,7 +2342,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2069,7 +2350,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2077,7 +2358,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2093,7 +2374,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2130,7 +2411,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -2181,7 +2462,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2189,7 +2470,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2205,7 +2486,7 @@
         <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2213,7 +2494,7 @@
         <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2221,20 +2502,20 @@
         <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2248,7 +2529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2275,98 +2556,98 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="4"/>
+      <c r="A2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="4"/>
+      <c r="A3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="4"/>
+      <c r="A4" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="4"/>
+      <c r="A5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="4"/>
+      <c r="A6" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="4"/>
+      <c r="A7" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="4"/>
+      <c r="A8" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="4"/>
+      <c r="A9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="4"/>
+      <c r="A10" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="4"/>
+      <c r="A11" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -2374,18 +2655,18 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2401,12 +2682,12 @@
         <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
@@ -2414,26 +2695,26 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2447,7 +2728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2474,98 +2755,98 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>119</v>
+      <c r="A2" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>121</v>
+      <c r="A3" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>123</v>
+      <c r="A4" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>171</v>
+      </c>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>125</v>
+      <c r="A5" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>172</v>
+      </c>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>127</v>
+      <c r="A6" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>129</v>
+      <c r="A7" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>135</v>
+      <c r="A10" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>175</v>
+      </c>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>137</v>
+      <c r="A11" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>176</v>
+      </c>
+      <c r="C11" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -2573,18 +2854,18 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2600,12 +2881,12 @@
         <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
@@ -2616,12 +2897,12 @@
         <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1</v>
@@ -2629,7 +2910,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -2637,10 +2918,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2654,7 +2935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2681,98 +2962,98 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>119</v>
+      <c r="A2" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>121</v>
+      <c r="A3" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>123</v>
+      <c r="A4" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>171</v>
+      </c>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>125</v>
+      <c r="A5" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>127</v>
+      <c r="A6" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>131</v>
+      <c r="A8" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>174</v>
+      </c>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>133</v>
+      <c r="A9" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>135</v>
+      <c r="A10" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>178</v>
+      </c>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>137</v>
+      <c r="A11" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>179</v>
+      </c>
+      <c r="C11" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -2780,18 +3061,18 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2807,12 +3088,12 @@
         <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
@@ -2823,47 +3104,47 @@
         <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2877,7 +3158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2905,33 +3186,33 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>185</v>
+      </c>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>187</v>
+      </c>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>185</v>
+      </c>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="4"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -2940,25 +3221,25 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>192</v>
+      </c>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -2967,37 +3248,37 @@
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>194</v>
+      </c>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>196</v>
+      </c>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>198</v>
+      </c>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="4"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -3006,20 +3287,20 @@
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>200</v>
+      </c>
+      <c r="C15" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
@@ -3027,10 +3308,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3038,200 +3319,15 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3470,9 +3566,194 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -3480,7 +3761,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3493,33 +3774,33 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>185</v>
+      </c>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>187</v>
+      </c>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>185</v>
+      </c>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="4"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -3528,7 +3809,7 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -3537,7 +3818,7 @@
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -3546,7 +3827,7 @@
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -3555,19 +3836,19 @@
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>196</v>
+      </c>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="4"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -3576,35 +3857,35 @@
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="4"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3612,7 +3893,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3634,7 +3915,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3839,6 +4120,249 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3900,7 +4424,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3908,7 +4432,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3996,7 +4520,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4004,15 +4528,15 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>64</v>
+      <c r="B24" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4020,7 +4544,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4041,10 +4565,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4058,7 +4582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4120,7 +4644,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4128,7 +4652,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4216,7 +4740,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4224,15 +4748,15 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>64</v>
+      <c r="B24" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4240,7 +4764,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4261,10 +4785,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4278,7 +4802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4340,7 +4864,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4348,7 +4872,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4436,7 +4960,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4444,15 +4968,15 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>64</v>
+      <c r="B24" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4460,7 +4984,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4481,10 +5005,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +5022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4536,7 +5060,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4544,7 +5068,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4552,7 +5076,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4568,7 +5092,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4656,7 +5180,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4664,7 +5188,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4672,7 +5196,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,7 +5204,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4688,20 +5212,20 @@
         <v>40</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>81</v>
+        <v>100</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4715,7 +5239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4753,7 +5277,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4761,7 +5285,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4769,7 +5293,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4777,7 +5301,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4785,7 +5309,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4881,7 +5405,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4889,7 +5413,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4897,7 +5421,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4905,7 +5429,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4913,219 +5437,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B27"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Manual/source/CZ/tab/parameters.xlsx
+++ b/docs/Manual/source/CZ/tab/parameters.xlsx
@@ -5,30 +5,32 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TGZ-D-48-13_26" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="TGZ-D-48-50_100" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="TGZ-S-48-50_100" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="TGZ-S-48-50_100RI" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="TGZ-S-48-100_250" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="TGZ-S-48-100_300" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="TGZ-S-48-100_425" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="TGZ-S-230-5_15" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="TGZ-D-320-5_10" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="TGZ-D-320-5_15" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="TGZ-S-400-3_9" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="TGZ-S-400-7_15" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="TGZ-S-400-10_20" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="TGZ-S-400-14_30" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="TGZ-D-560-30_50" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="TGS-320-10_15" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="TGS-560-25_50" sheetId="17" state="visible" r:id="rId19"/>
-    <sheet name="TGS-560-50_100" sheetId="18" state="visible" r:id="rId20"/>
-    <sheet name="TGMmini" sheetId="19" state="visible" r:id="rId21"/>
-    <sheet name="TGMcontroller" sheetId="20" state="visible" r:id="rId22"/>
-    <sheet name="TGZpMotion" sheetId="21" state="visible" r:id="rId23"/>
+    <sheet name="TGZ-S-48-100_250RI" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="TGZ-S-48-100_300RI" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="TGZ-S-48-100_250" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="TGZ-S-48-100_300" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="TGZ-S-48-100_425" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="TGZ-S-230-5_15" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="TGZ-D-320-5_10" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="TGZ-D-320-5_15" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="TGZ-S-400-3_9" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="TGZ-S-400-7_15" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="TGZ-S-400-10_20" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="TGZ-S-400-14_30" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="TGZ-D-560-30_50" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="TGS-320-10_15" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="TGS-560-25_50" sheetId="19" state="visible" r:id="rId21"/>
+    <sheet name="TGS-560-50_100" sheetId="20" state="visible" r:id="rId22"/>
+    <sheet name="TGMmini" sheetId="21" state="visible" r:id="rId23"/>
+    <sheet name="TGMcontroller" sheetId="22" state="visible" r:id="rId24"/>
+    <sheet name="TGZpMotion" sheetId="23" state="visible" r:id="rId25"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="215">
   <si>
     <t xml:space="preserve">NAPÁJENÍ</t>
   </si>
@@ -282,31 +284,61 @@
     <t xml:space="preserve">1 x 4pin MOLEX Micro-lock 50557005011</t>
   </si>
   <si>
+    <t xml:space="preserve">6–48 VDC (abs. Max. 59 VDC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100A</t>
+  </si>
+  <si>
     <t xml:space="preserve">250 A</t>
   </si>
   <si>
     <t xml:space="preserve">70 W</t>
   </si>
   <si>
+    <t xml:space="preserve">DC BUS (+DC, -DC) – na PCB označeno „VCC, GND“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 x Pressfit M8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Řízení, STO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 5pin MOLEX Micro-Lock, 5055700501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 x Pressfit M8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Externí temistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 2pin MOLEX Micro-Fit 3.0, 430250200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 4pin MOLEX Micro-Fit 3.0, 430250400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 22pin WEIDMÜLLER  B2CF 3.50/22/180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x zelená (SERVO OK)  1x červená (SERVO ERROR)</t>
+  </si>
+  <si>
     <t xml:space="preserve">8 x Pressfit M5</t>
   </si>
   <si>
     <t xml:space="preserve">1 x 5pin MOLEX Micro-Fit 3.0, 436450500</t>
   </si>
   <si>
-    <t xml:space="preserve">3 x Pressfit M8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 x 4pin MOLEX Micro-Fit 3.0, 430250400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Externí temistor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 x 2pin MOLEX Micro-Fit 3.0, 430250200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300 A</t>
+    <t xml:space="preserve">2 x 8pin WEIDMÜLLER  B2CF 3.50/08/180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 12pin WEIDMÜLLER  B2CF 3.50/12/180</t>
   </si>
   <si>
     <t xml:space="preserve">425 A</t>
@@ -336,9 +368,6 @@
     <t xml:space="preserve">1 x 8pin WEIDMÜLLER  B2CF 3.50/08/180</t>
   </si>
   <si>
-    <t xml:space="preserve">1 x 12pin WEIDMÜLLER  B2CF 3.50/12/180</t>
-  </si>
-  <si>
     <t xml:space="preserve">EMI FILTR</t>
   </si>
   <si>
@@ -366,9 +395,6 @@
     <t xml:space="preserve">2 x 6pin WEIDMÜLLER  SLS 5.08/06/180FI </t>
   </si>
   <si>
-    <t xml:space="preserve">2 x 8pin WEIDMÜLLER  B2CF 3.50/08/180</t>
-  </si>
-  <si>
     <t xml:space="preserve">400 VAC</t>
   </si>
   <si>
@@ -661,9 +687,6 @@
   </si>
   <si>
     <t xml:space="preserve">Červená/zelená dioda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 x 22pin WEIDMÜLLER  B2CF 3.50/22/180</t>
   </si>
 </sst>
 </file>
@@ -741,7 +764,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -750,24 +773,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1105,15 +1120,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
   </cols>
   <sheetData>
@@ -1138,7 +1153,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1146,7 +1161,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1154,132 +1169,132 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>107</v>
@@ -1287,18 +1302,23 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>98</v>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1317,234 +1337,200 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>109</v>
+      <c r="B3" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>110</v>
+      <c r="B4" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>111</v>
+      <c r="B5" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-    </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-    </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-    </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>95</v>
+      <c r="B24" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1563,234 +1549,200 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>109</v>
+      <c r="B3" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>118</v>
+      <c r="B4" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>119</v>
+      <c r="B5" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-    </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-    </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-    </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>95</v>
+      <c r="B24" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1812,7 +1764,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1822,221 +1774,221 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>117</v>
+      <c r="B30" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2058,7 +2010,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2068,221 +2020,221 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="B30" s="2" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2297,6 +2249,498 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.27"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.27"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2334,7 +2778,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2342,7 +2786,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2350,7 +2794,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2358,7 +2802,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2374,7 +2818,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2411,7 +2855,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -2462,7 +2906,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2470,7 +2914,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2486,7 +2930,7 @@
         <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2494,7 +2938,7 @@
         <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,20 +2946,20 @@
         <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2529,7 +2973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2556,98 +3000,98 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="6"/>
+      <c r="A2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="6"/>
+      <c r="A3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="6"/>
+      <c r="A4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="6"/>
+      <c r="A5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="6"/>
+      <c r="A6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="6"/>
+      <c r="A7" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="6"/>
+      <c r="A8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="6"/>
+      <c r="A9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="6"/>
+      <c r="A10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="6"/>
+      <c r="A11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -2655,18 +3099,18 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2682,12 +3126,12 @@
         <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
@@ -2695,26 +3139,26 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2728,7 +3172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2755,98 +3199,98 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>139</v>
+      <c r="A2" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="6"/>
+        <v>178</v>
+      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>141</v>
+      <c r="A3" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>143</v>
+      <c r="A4" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="6"/>
+        <v>179</v>
+      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>145</v>
+      <c r="A5" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>147</v>
+      <c r="A6" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>149</v>
+      <c r="A7" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>181</v>
+      </c>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>151</v>
+      <c r="A8" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>182</v>
+      </c>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>153</v>
+      <c r="A9" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>155</v>
+      <c r="A10" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>157</v>
+      <c r="A11" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>184</v>
+      </c>
+      <c r="C11" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -2854,18 +3298,18 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2881,12 +3325,12 @@
         <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
@@ -2897,12 +3341,12 @@
         <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1</v>
@@ -2910,7 +3354,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -2918,416 +3362,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C26"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3566,6 +3604,412 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3589,33 +4033,33 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="6"/>
+        <v>193</v>
+      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="6"/>
+        <v>195</v>
+      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="6"/>
+        <v>193</v>
+      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="6"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -3624,7 +4068,7 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -3633,7 +4077,7 @@
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -3642,7 +4086,7 @@
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -3651,19 +4095,19 @@
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>204</v>
+      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="6"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -3672,32 +4116,32 @@
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>214</v>
+      </c>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="6"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>35</v>
@@ -3708,7 +4152,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3716,22 +4160,22 @@
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>207</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>108</v>
+      <c r="B19" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3746,7 +4190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3774,33 +4218,33 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="6"/>
+        <v>193</v>
+      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="6"/>
+        <v>195</v>
+      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="6"/>
+        <v>193</v>
+      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="6"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -3809,7 +4253,7 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -3818,7 +4262,7 @@
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -3827,7 +4271,7 @@
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -3836,19 +4280,19 @@
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>204</v>
+      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="6"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -3857,35 +4301,35 @@
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>214</v>
+      </c>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="6"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3893,7 +4337,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>207</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4126,7 +4570,7 @@
   </sheetPr>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -4279,7 +4723,7 @@
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4299,10 +4743,6 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-    </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>0</v>
@@ -4312,18 +4752,18 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4336,7 +4776,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -4344,7 +4784,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -4367,208 +4807,256 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="0" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>53</v>
+      <c r="B5" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>80</v>
+      <c r="B6" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="B7" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="0" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
+      <c r="B10" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
+      <c r="B11" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B12" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
+      <c r="A15" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="B22" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B23" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B24" s="0" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
+      <c r="B29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="B30" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="B31" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>87</v>
+      <c r="B33" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4583,6 +5071,494 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
+      <c r="B29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4644,7 +5620,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4652,7 +5628,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4740,7 +5716,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4748,15 +5724,15 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>84</v>
+      <c r="B24" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4764,7 +5740,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4785,10 +5761,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4802,7 +5778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4864,7 +5840,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4872,7 +5848,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4960,7 +5936,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4968,15 +5944,15 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>84</v>
+      <c r="B24" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4984,7 +5960,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5005,439 +5981,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B27"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Manual/source/CZ/tab/parameters.xlsx
+++ b/docs/Manual/source/CZ/tab/parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="TGZ-D-48-13_26" sheetId="1" state="visible" r:id="rId3"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="229">
   <si>
     <t xml:space="preserve">NAPÁJENÍ</t>
   </si>
@@ -53,276 +53,294 @@
     <t xml:space="preserve">Ovládací napětí</t>
   </si>
   <si>
+    <t xml:space="preserve">24 VDC ± 10 %, 400 mA*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Výkonové napájecí napětí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0–48 VDC (jištění 30A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instalovaný příkon pro provoz S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trvalý proud na jednu osu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trvalý celkový proud při provozu dvou os</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x 15 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximální výstupní proud (max. 5 s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x 30 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ztráty při jmenovité zátěži</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stupeň krytí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOMUNIKACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4pin WEIDMÜLLER  B2CF 3.50/04/180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHERCAT IN/OUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100/1000 Mb/s, 2x RJ45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHERNET UDP (servis)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100/1000 Mb/s, RJ45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vstupy/výstupy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 AI, 8 DI, 6 DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1x 22pin WEIDMÜLLER  B2CF 3.50/22/180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNALIZACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED displej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chybové hlášení, 2x7 segment LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED signalizace (osa 1 a 2 zvlášť)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1x zelená (SERVO OK)  1x červená (SERVO ERROR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSTATNÍ KONEKTORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napájení výkonové části</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 2pin PHOENIX PC 5/2 2-STCL1-7,62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napájení řídicí části</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 5pin WEIDMÜLLER  BCZ 3.81/05/180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motorový konektor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x 6pin WEIDMÜLLER  BLZP 5.08HC/06/180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zpětnovazební konektor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x 8pin WEIDMÜLLER  B2CF 3.50/08/180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Externí enkodér</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1x 12pin WEIDMÜLLER  B2CF 3.50/12/180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0–48 VDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,8 kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x 50 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x 100 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 3pin WAGO push-in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 4pin WAGO push-in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brzdový konektor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 × 6pin WEIDMÜLLER  BLF 5.00HC/06/180F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,4 kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED signalizace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x Erni šroubovací svorky M5 PRESSFIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 5pin MOLEX micro-lock, 505570-0501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 x Erni šroubovací svorky M5 PRESSFIT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 4pin MOLEX micro-lock, 505570-0501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 8pin MOLEX 5031490800 CLIK-MATE 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100/1000 Mb/s, 2 x 8pin MOLEX 5031490800 CLIK-MATE 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100/1000 Mb/s, 1 x 8pin MOLEX 5031490800 CLIK-MATE 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I/O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 DI, 6 DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 18pin MOLEX 5031491800 CLIK-MATE 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 DI (TTL), 1 AI, 2 PT1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 12pin MOLEX 5031491200 CLIK-MATE 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEEDBACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB1, FB2, FB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 x 10pin MOLEX 5031481090 CLIK-MATE 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 12pin MOLEX 5031481290 CLIK-MATE 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC BUS (+DC, -DC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x Pressfit M5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Řízení, STO, BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 5pin MOLEX micro-lock, 5055700501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 x Pressfit M5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Externí teplota, Brzda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 4pin MOLEX Micro-lock 50557005011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 VDC ± 10 %, 1 A*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0–48 VDC (abs. max. 59 VDC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250 A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC BUS (+DC, -DC) – na PCB označeno „VCC, GND“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 x Pressfit M8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Řízení, STO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 5pin MOLEX Micro-Lock, 5055700501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 x Pressfit M8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Externí temistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 2pin MOLEX Micro-Fit 3.0, 430250200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 4pin MOLEX Micro-Fit 3.0, 430250400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6–48 VDC (abs. Max. 59 VDC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 A</t>
+  </si>
+  <si>
     <t xml:space="preserve">24 VDC ± 10 %, 500 mA*</t>
   </si>
   <si>
-    <t xml:space="preserve">Výkonové napájecí napětí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6–48 VDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instalovaný příkon pro provoz S1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 kW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trvalý proud na jednu osu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trvalý celkový proud při provozu dvou os</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 x 15 A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximální výstupní proud (max. 5 s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 x 30 A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ztráty při jmenovité zátěži</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KOMUNIKACE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4pin WEIDMÜLLER  B2CF 3.50/04/180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETHERCAT IN/OUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100/1000 Mb/s, 2x RJ45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETHERNET UDP (servis)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100/1000 Mb/s, RJ45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vstupy/výstupy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 AI, 8 DI, 6 DO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1x 22pin WEIDMÜLLER  B2CF 3.50/22/180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGNALIZACE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED displej</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chybové hlášení, 2x7 segment LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED signalizace (osa 1 a 2 zvlášť)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1x zelená (SERVO OK)  1x červená (SERVO ERROR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSTATNÍ KONEKTORY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napájení výkonové části</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 x 2pin PHOENIX PC 5/2 2-STCL1-7,62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napájení řídicí části</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 x 5pin WEIDMÜLLER  BCZ 3.81/05/180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motorový konektor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 x 6pin WEIDMÜLLER  BLZP 5.08HC/06/180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zpětnovazební konektor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2x 8pin WEIDMÜLLER  B2CF 3.50/08/180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Externí enkodér</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1x 12pin WEIDMÜLLER  B2CF 3.50/12/180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,8 kW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 x 50 A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 x 100 A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 x 3pin WAGO push-in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 x 4pin WAGO push-in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brzdový konektor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 × 6pin WEIDMÜLLER  BLF 5.00HC/06/180F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,4 kW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED signalizace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 x Erni šroubovací svorky M5 PRESSFIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 x 5pin MOLEX micro-lock, 505570-0501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 x Erni šroubovací svorky M5 PRESSFIT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 x 4pin MOLEX micro-lock, 505570-0501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 x 8pin MOLEX 5031490800 CLIK-MATE 1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100/1000 Mb/s, 2 x 8pin MOLEX 5031490800 CLIK-MATE 1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100/1000 Mb/s, 1 x 8pin MOLEX 5031490800 CLIK-MATE 1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I/O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 DI, 6 DO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 x 18pin MOLEX 5031491800 CLIK-MATE 1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 DI (TTL), 1 AI, 2 PT1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 x 12pin MOLEX 5031491200 CLIK-MATE 1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEEDBACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB1, FB2, FB3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 x 10pin MOLEX 5031481090 CLIK-MATE 1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 x 12pin MOLEX 5031481290 CLIK-MATE 1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC BUS (+DC, -DC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 x Pressfit M5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Řízení, STO, BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 x 5pin MOLEX micro-lock, 5055700501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 x Pressfit M5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Externí teplota, Brzda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 x 4pin MOLEX Micro-lock 50557005011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6–48 VDC (abs. Max. 59 VDC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250 A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70 W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC BUS (+DC, -DC) – na PCB označeno „VCC, GND“</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 x Pressfit M8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Řízení, STO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 x 5pin MOLEX Micro-Lock, 5055700501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 x Pressfit M8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Externí temistor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 x 2pin MOLEX Micro-Fit 3.0, 430250200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 x 4pin MOLEX Micro-Fit 3.0, 430250400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300 A</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 x 22pin WEIDMÜLLER  B2CF 3.50/22/180</t>
   </si>
   <si>
@@ -344,6 +362,9 @@
     <t xml:space="preserve">425 A</t>
   </si>
   <si>
+    <t xml:space="preserve">24 VDC ± 10 %, 700 mA*</t>
+  </si>
+  <si>
     <t xml:space="preserve">230 VAC</t>
   </si>
   <si>
@@ -377,7 +398,10 @@
     <t xml:space="preserve">NLMO62P72-04 nebo NLA062P72-04  </t>
   </si>
   <si>
-    <t xml:space="preserve">140-320 VDC</t>
+    <t xml:space="preserve">24 VDC ± 10 %, 600 mA*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-320 VDC (pojistka 10 A)</t>
   </si>
   <si>
     <t xml:space="preserve">2,6 kW</t>
@@ -395,7 +419,10 @@
     <t xml:space="preserve">2 x 6pin WEIDMÜLLER  SLS 5.08/06/180FI </t>
   </si>
   <si>
-    <t xml:space="preserve">400 VAC</t>
+    <t xml:space="preserve">0-320 VDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 VAC/50Hz 6A</t>
   </si>
   <si>
     <t xml:space="preserve">1,7 kW</t>
@@ -422,12 +449,18 @@
     <t xml:space="preserve">NCZXX3P49-04</t>
   </si>
   <si>
+    <t xml:space="preserve">400 VAC/50Hz 10A</t>
+  </si>
+  <si>
     <t xml:space="preserve">3,9 kW</t>
   </si>
   <si>
     <t xml:space="preserve">7 A</t>
   </si>
   <si>
+    <t xml:space="preserve">400 VAC/50Hz 16A</t>
+  </si>
+  <si>
     <t xml:space="preserve">5,6 kW</t>
   </si>
   <si>
@@ -437,6 +470,9 @@
     <t xml:space="preserve">20 A</t>
   </si>
   <si>
+    <t xml:space="preserve">400 VAC/50Hz 20A</t>
+  </si>
+  <si>
     <t xml:space="preserve">8,4 kW</t>
   </si>
   <si>
@@ -452,6 +488,9 @@
     <t xml:space="preserve">10 kHz</t>
   </si>
   <si>
+    <t xml:space="preserve">24 VDC ± 10 %, 2 A*</t>
+  </si>
+  <si>
     <t xml:space="preserve">24-560 VDC</t>
   </si>
   <si>
@@ -600,6 +639,9 @@
   </si>
   <si>
     <t xml:space="preserve">1 x 5pin WEIDMÜLLER BCZ 3.81/05/180F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 x 400 VAC/50Hz 63A</t>
   </si>
   <si>
     <t xml:space="preserve">150 W</t>
@@ -908,10 +950,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -984,20 +1026,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,36 +1058,36 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1056,20 +1098,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1102,6 +1144,14 @@
       </c>
       <c r="B27" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1120,10 +1170,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1145,7 +1195,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1153,7 +1203,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1161,7 +1211,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1169,7 +1219,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1185,23 +1235,23 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,60 +1270,60 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1281,7 +1331,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1289,7 +1339,7 @@
         <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1297,7 +1347,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1305,20 +1355,28 @@
         <v>40</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1337,10 +1395,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1362,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1370,7 +1428,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1378,7 +1436,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1386,7 +1444,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1394,7 +1452,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1402,7 +1460,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,20 +1471,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1445,36 +1503,36 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,20 +1543,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1506,7 +1564,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1514,7 +1572,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1522,7 +1580,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1530,7 +1588,15 @@
         <v>40</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1549,10 +1615,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1574,7 +1640,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1582,7 +1648,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,7 +1656,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1598,7 +1664,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1606,7 +1672,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1625,20 +1691,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1657,36 +1723,36 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1697,20 +1763,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1718,7 +1784,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1726,7 +1792,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,7 +1800,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1742,7 +1808,15 @@
         <v>40</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1761,10 +1835,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1786,7 +1860,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1794,7 +1868,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1802,7 +1876,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1810,7 +1884,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,7 +1892,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1826,35 +1900,35 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1874,79 +1948,79 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1954,7 +2028,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1962,7 +2036,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,25 +2044,33 @@
         <v>40</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="A29" s="3"/>
       <c r="B29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
+      </c>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2007,10 +2089,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2032,7 +2114,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2040,7 +2122,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2048,7 +2130,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2056,7 +2138,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2072,35 +2154,35 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2120,79 +2202,79 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2200,7 +2282,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2208,7 +2290,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2216,25 +2298,33 @@
         <v>40</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="A29" s="3"/>
       <c r="B29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
+      </c>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2253,10 +2343,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2278,7 +2368,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2286,7 +2376,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2294,7 +2384,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2302,7 +2392,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2310,7 +2400,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2318,35 +2408,35 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2366,79 +2456,79 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2446,7 +2536,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2454,7 +2544,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2462,25 +2552,33 @@
         <v>40</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="A29" s="3"/>
       <c r="B29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
+      </c>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2499,10 +2597,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2524,7 +2622,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2532,7 +2630,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2540,7 +2638,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2548,7 +2646,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,7 +2654,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2564,35 +2662,35 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2612,79 +2710,79 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2692,7 +2790,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2700,7 +2798,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2708,25 +2806,33 @@
         <v>40</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="A29" s="3"/>
       <c r="B29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
+      </c>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2745,10 +2851,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2770,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2778,7 +2884,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2786,7 +2892,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2794,7 +2900,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2802,7 +2908,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2810,7 +2916,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2818,23 +2924,23 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2853,36 +2959,36 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2893,20 +2999,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2914,7 +3020,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2922,23 +3028,23 @@
         <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2946,20 +3052,28 @@
         <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>108</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>146</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2978,10 +3092,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3001,164 +3115,173 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>169</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3177,10 +3300,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3200,16 +3323,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -3218,52 +3341,52 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -3272,89 +3395,90 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>169</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>185</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -3362,10 +3486,18 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>177</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3384,10 +3516,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3417,7 +3549,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3425,7 +3557,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3433,7 +3565,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3441,7 +3573,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3449,7 +3581,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3457,23 +3589,23 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3492,36 +3624,36 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3532,20 +3664,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3553,7 +3685,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3561,23 +3693,23 @@
         <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3586,6 +3718,14 @@
       </c>
       <c r="B28" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3604,10 +3744,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3626,189 +3766,206 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>147</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>148</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C13" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>169</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>191</v>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3830,7 +3987,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3850,28 +4007,28 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -3880,7 +4037,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -3889,25 +4046,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -3916,28 +4073,28 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -3946,7 +4103,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
@@ -3955,16 +4112,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
@@ -3972,26 +4129,26 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4033,28 +4190,28 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -4063,7 +4220,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -4072,25 +4229,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -4099,10 +4256,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -4111,7 +4268,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -4120,10 +4277,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -4132,7 +4289,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -4141,42 +4298,42 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4197,8 +4354,8 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4218,28 +4375,28 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -4248,7 +4405,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -4257,25 +4414,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
@@ -4284,10 +4441,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -4296,7 +4453,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -4305,10 +4462,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -4317,7 +4474,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -4326,18 +4483,18 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4356,10 +4513,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4389,7 +4546,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4397,7 +4554,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4405,7 +4562,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4413,7 +4570,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4421,23 +4578,23 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4456,60 +4613,60 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4517,7 +4674,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4525,23 +4682,23 @@
         <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4550,6 +4707,14 @@
       </c>
       <c r="B27" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4568,10 +4733,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4601,7 +4766,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4609,7 +4774,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4617,7 +4782,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4625,7 +4790,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4633,23 +4798,23 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4657,7 +4822,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4665,130 +4830,138 @@
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2"/>
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>69</v>
+      <c r="A19" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4807,256 +4980,240 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
+      <c r="B2" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>80</v>
+      <c r="B3" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>42</v>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>81</v>
+      <c r="B5" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>82</v>
+      <c r="B6" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>83</v>
+      <c r="B7" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>1</v>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>60</v>
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>61</v>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>62</v>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>1</v>
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>65</v>
+      <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>1</v>
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>70</v>
+      <c r="A19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>1</v>
+      <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="0" t="s">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>85</v>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>87</v>
+      <c r="A28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>1</v>
+      <c r="A29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>88</v>
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>90</v>
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>91</v>
+      <c r="A33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5075,10 +5232,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5088,243 +5245,227 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
+      <c r="B2" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>80</v>
+      <c r="B3" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>42</v>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>81</v>
+      <c r="B5" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>91</v>
+      <c r="A33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5343,10 +5484,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5368,7 +5509,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5376,7 +5517,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5384,7 +5525,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5392,7 +5533,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5400,7 +5541,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5408,23 +5549,23 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5443,60 +5584,60 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
+      <c r="B16" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5504,31 +5645,31 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>88</v>
+      <c r="B24" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>91</v>
+        <v>38</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5536,15 +5677,23 @@
         <v>40</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>90</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5563,10 +5712,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5588,7 +5737,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5596,7 +5745,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5604,7 +5753,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5612,7 +5761,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5620,7 +5769,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5628,23 +5777,23 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5663,60 +5812,60 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5724,31 +5873,31 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>88</v>
+      <c r="B24" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>91</v>
+        <v>38</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5761,10 +5910,18 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>90</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5783,10 +5940,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5808,7 +5965,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5816,7 +5973,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5824,7 +5981,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5832,7 +5989,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5840,7 +5997,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5848,23 +6005,23 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5883,60 +6040,60 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5944,31 +6101,31 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>88</v>
+      <c r="B24" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>91</v>
+        <v>38</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5981,10 +6138,18 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>90</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Manual/source/CZ/tab/parameters.xlsx
+++ b/docs/Manual/source/CZ/tab/parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="22"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="TGZ-D-48-13_26" sheetId="1" state="visible" r:id="rId3"/>
@@ -31,6 +31,7 @@
     <sheet name="TGMmini" sheetId="21" state="visible" r:id="rId23"/>
     <sheet name="TGMcontroller" sheetId="22" state="visible" r:id="rId24"/>
     <sheet name="TGZpMotion" sheetId="23" state="visible" r:id="rId25"/>
+    <sheet name="commonHW_DI" sheetId="24" state="visible" r:id="rId26"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="262">
   <si>
     <t xml:space="preserve">NAPÁJENÍ</t>
   </si>
@@ -729,6 +730,105 @@
   </si>
   <si>
     <t xml:space="preserve">Červená/zelená dioda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> č. vstupu </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rozsah napětí log. 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rozsah napětí log. 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nominální vstupní napětí </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rozsah napájení DI/DO </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spotřeba v log. 1 (17V) ±20% </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spotřeba v log. 1 (24V) ±20% </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vlastní spotřeba v log.1 (28V) ±20% </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nominální vstupní odpor ±20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Přiřazeno k ose </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Max. vstupní frekvence - obdélník </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> U&lt;sub&gt;log0&lt;/sub&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> U&lt;sub&gt;log1&lt;/sub&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> U&lt;sub&gt;nom&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VDD&lt;sub&gt;IO&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I&lt;sub&gt;in17&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I&lt;sub&gt;in24&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I&lt;sub&gt;in28&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RI&lt;sub&gt;inNom&lt;/sub&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Osa č. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> f&lt;sub&gt;maxSq&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> V</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> V </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kΩ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-					 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kHz					 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17-28V </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17-28V</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nevyžaduje</t>
   </si>
 </sst>
 </file>
@@ -4354,7 +4454,7 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -4496,6 +4596,467 @@
       <c r="B17" s="1" t="s">
         <v>99</v>
       </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="26.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="30.23"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0"/>
+      <c r="B20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/Manual/source/CZ/tab/parameters.xlsx
+++ b/docs/Manual/source/CZ/tab/parameters.xlsx
@@ -32,6 +32,8 @@
     <sheet name="TGMcontroller" sheetId="22" state="visible" r:id="rId24"/>
     <sheet name="TGZpMotion" sheetId="23" state="visible" r:id="rId25"/>
     <sheet name="commonHW_DI" sheetId="24" state="visible" r:id="rId26"/>
+    <sheet name="commonHW_DO" sheetId="25" state="visible" r:id="rId27"/>
+    <sheet name="commonHW_AI" sheetId="26" state="visible" r:id="rId28"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="285">
   <si>
     <t xml:space="preserve">NAPÁJENÍ</t>
   </si>
@@ -768,13 +770,13 @@
     <t xml:space="preserve"> # </t>
   </si>
   <si>
-    <t xml:space="preserve"> U&lt;sub&gt;log0&lt;/sub&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U&lt;sub&gt;log1&lt;/sub&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> U&lt;sub&gt;nom&lt;/sub&gt;</t>
+    <t xml:space="preserve"> V&lt;sub&gt;log0&lt;/sub&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> V&lt;sub&gt;log1&lt;/sub&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> V&lt;sub&gt;nom&lt;/sub&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> VDD&lt;sub&gt;IO&lt;/sub&gt;</t>
@@ -789,46 +791,141 @@
     <t xml:space="preserve"> I&lt;sub&gt;in28&lt;/sub&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve"> RI&lt;sub&gt;inNom&lt;/sub&gt; </t>
+    <t xml:space="preserve"> R&lt;sub&gt;in,Nom&lt;/sub&gt; </t>
   </si>
   <si>
     <t xml:space="preserve"> Osa č. </t>
   </si>
   <si>
+    <t xml:space="preserve"> f&lt;sub&gt;max,Sq&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> V</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> V </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kΩ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-					 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kHz					 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17-28V </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17-28V</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nevyžaduje</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> č. výstupu </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nominální výstupní napětí </t>
+  </si>
+  <si>
+    <t xml:space="preserve">min. napájecí napětí </t>
+  </si>
+  <si>
+    <t xml:space="preserve">max. napájecí napětí 𐠒 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">min.výstupní napětí ±20% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">max. výstupní napětí ±20% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">max. výstupní proud</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> přiřazeno k ose </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> max. frekvence - obdélník </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VDD&lt;sub&gt;IO,min&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VDD&lt;sub&gt;IO,max&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> V&lt;sub&gt;O,min&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> V&lt;sub&gt;O,max&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I&lt;sub&gt;O,max&lt;/sub&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> f&lt;sub&gt;maxSq&lt;/sub&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> V</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> V </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> kΩ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-					 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kHz					 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0-10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17-28V </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17-28V</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nevyžaduje</t>
+    <t xml:space="preserve"> VDD&lt;sub&gt;IO&lt;/sub&gt; - 0,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rozsah napětí</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nom. vstupní odpor ±10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">časová konstanta ±10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> V&lt;sub&gt;in&lt;/sub&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R&lt;sub&gt;inNom&lt;/sub&gt; </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">τ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">&lt;sub&gt;in&lt;/sub&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">us</t>
   </si>
 </sst>
 </file>
@@ -838,7 +935,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -862,6 +959,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4613,450 +4716,837 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="20.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="26.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="27.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="30.24"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="26.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="30.24"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;12Stránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="26.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="30.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="30.24"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>239</v>
+      <c r="B1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>250</v>
+      <c r="B2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>257</v>
+      <c r="D3" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>50</v>
+      <c r="C4" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
-      <c r="B20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
+      <c r="C5" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
